--- a/data_impute_project/data/terr_herb_and_marine_mammals.xlsx
+++ b/data_impute_project/data/terr_herb_and_marine_mammals.xlsx
@@ -436,57 +436,57 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>specimen</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>diet</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>δ13C coll</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>δ15N coll</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>δ13C carb</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>δ18O carb</t>
+          <t>I</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>δ18O phos</t>
+          <t>J</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>δ34S coll</t>
+          <t>K</t>
         </is>
       </c>
     </row>

--- a/data_impute_project/data/terr_herb_and_marine_mammals.xlsx
+++ b/data_impute_project/data/terr_herb_and_marine_mammals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +489,11 @@
       <c r="F2" t="n">
         <v>9.94</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Hb 47</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -502,6 +512,11 @@
         <v>17.78</v>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hb 48</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -520,6 +535,11 @@
         <v>17.28</v>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>S 6</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -538,6 +558,11 @@
         <v>16.54</v>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hb 7</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -556,6 +581,11 @@
         <v>17.64</v>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hb 46</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -574,6 +604,11 @@
         <v>15.84</v>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hb 1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -594,6 +629,11 @@
       <c r="F8" t="n">
         <v>9.970000000000001</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hb 2</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -614,6 +654,11 @@
       <c r="F9" t="n">
         <v>15.05</v>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Hb 3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -632,6 +677,11 @@
         <v>16.47</v>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hb 5</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -652,6 +702,11 @@
       <c r="F11" t="n">
         <v>14.65</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>S 24</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -670,6 +725,11 @@
         <v>16.67</v>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>S 25</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -688,6 +748,11 @@
         <v>14.68</v>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>S 26</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -706,6 +771,11 @@
         <v>15.63</v>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>S 27</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -726,6 +796,11 @@
       <c r="F15" t="n">
         <v>14.77</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>S 28</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -744,6 +819,11 @@
         <v>15.6</v>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hb 19</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -764,6 +844,11 @@
       <c r="F17" t="n">
         <v>12.94</v>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hb 20</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -780,6 +865,11 @@
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>32 FO1Hepi</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -796,6 +886,11 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>33 FO2H</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -814,6 +909,11 @@
         <v>16.64</v>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>S 29</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -832,6 +932,11 @@
         <v>16.52</v>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>S 30</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -852,6 +957,11 @@
       <c r="F22" t="n">
         <v>12.56</v>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>S 17</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -868,6 +978,11 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>20 KR1Ph</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -884,6 +999,11 @@
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>21 KR2T</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -900,6 +1020,11 @@
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>22 KR3S</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -916,6 +1041,11 @@
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>23 KR4V</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -932,6 +1062,11 @@
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>24 KR5Mt</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -948,6 +1083,11 @@
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>71 KR1BuTy</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -964,6 +1104,11 @@
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>72 KR2Sc</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -980,6 +1125,11 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>73 KR3Mt</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -996,6 +1146,11 @@
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>74 KR4Fi</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1012,6 +1167,11 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>75 KR5Mt</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1030,6 +1190,11 @@
         <v>16.85</v>
       </c>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Hb 83</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1048,6 +1213,11 @@
         <v>16.03</v>
       </c>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hb 84</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1066,6 +1236,11 @@
         <v>17.05</v>
       </c>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Hb 85</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1084,6 +1259,11 @@
         <v>17.41</v>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hb 86</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1102,6 +1282,11 @@
         <v>16.49</v>
       </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hb 87</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1120,6 +1305,11 @@
         <v>16.71</v>
       </c>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hb 88</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1138,6 +1328,11 @@
         <v>17.2</v>
       </c>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hb 89</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1156,6 +1351,11 @@
         <v>17.44</v>
       </c>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Hb 90</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1174,6 +1374,11 @@
         <v>18.53</v>
       </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hb 91</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1194,6 +1399,11 @@
       <c r="F42" t="n">
         <v>12.97</v>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hb 92</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1212,6 +1422,11 @@
         <v>19.59</v>
       </c>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Hb 50</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1232,6 +1447,11 @@
       <c r="F44" t="n">
         <v>12.33</v>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Hb 40</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1252,6 +1472,11 @@
       <c r="F45" t="n">
         <v>13.95</v>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hb 41</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1270,6 +1495,11 @@
         <v>16.41</v>
       </c>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hb 42</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1288,6 +1518,11 @@
         <v>16.91</v>
       </c>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Hb 43</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1306,6 +1541,11 @@
         <v>16.47</v>
       </c>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>S 8</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1324,6 +1564,11 @@
         <v>16.4</v>
       </c>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>S 9</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1340,6 +1585,11 @@
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>S 10</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1360,6 +1610,11 @@
       <c r="F51" t="n">
         <v>10.77</v>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>S 11</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1378,6 +1633,11 @@
         <v>16.65</v>
       </c>
       <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>S 12</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1396,6 +1656,11 @@
         <v>16.71</v>
       </c>
       <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Hb 53</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1414,6 +1679,11 @@
         <v>16.88</v>
       </c>
       <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Hb 54</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1432,6 +1702,11 @@
         <v>17.18</v>
       </c>
       <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Hb 55</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1450,6 +1725,11 @@
         <v>17.07</v>
       </c>
       <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Hb 56</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1470,6 +1750,11 @@
       <c r="F57" t="n">
         <v>14.11</v>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Hb 57</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1488,6 +1773,11 @@
         <v>17.66</v>
       </c>
       <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Hb 58</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1506,6 +1796,11 @@
         <v>17.51</v>
       </c>
       <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hb 59</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1524,6 +1819,11 @@
         <v>17.62</v>
       </c>
       <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Hb 60</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1542,6 +1842,11 @@
         <v>17.13</v>
       </c>
       <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Hb 61</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1560,6 +1865,11 @@
         <v>17.18</v>
       </c>
       <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Hb 62</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1578,6 +1888,11 @@
         <v>15.3</v>
       </c>
       <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Hb 28</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1596,6 +1911,11 @@
         <v>17.6</v>
       </c>
       <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Hb 35</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1614,6 +1934,11 @@
         <v>16.71</v>
       </c>
       <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Hb 36</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1632,6 +1957,11 @@
         <v>16.38</v>
       </c>
       <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Hb 38</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1650,6 +1980,11 @@
         <v>16.54</v>
       </c>
       <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Hb 39</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1668,6 +2003,11 @@
         <v>17.41</v>
       </c>
       <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>S 1</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1686,6 +2026,11 @@
         <v>17.03</v>
       </c>
       <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>S 2</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1706,6 +2051,11 @@
       <c r="F70" t="n">
         <v>12.54</v>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>S 3</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1724,6 +2074,11 @@
       <c r="F71" t="n">
         <v>13.12</v>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>S 4</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1744,6 +2099,11 @@
       <c r="F72" t="n">
         <v>13.73</v>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>S 5</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1764,6 +2124,11 @@
       <c r="F73" t="n">
         <v>21.15</v>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Hb 30</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1782,6 +2147,11 @@
       <c r="F74" t="n">
         <v>16.22</v>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>KHb 25</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1798,6 +2168,11 @@
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>26 SR2Fi</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1816,6 +2191,11 @@
         <v>19.73</v>
       </c>
       <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Hb 73</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1836,6 +2216,11 @@
       <c r="F77" t="n">
         <v>13.76</v>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Hb 74</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1852,6 +2237,11 @@
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Hb 75</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1870,6 +2260,11 @@
         <v>19.72</v>
       </c>
       <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Hb 76</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1888,6 +2283,11 @@
         <v>19.64</v>
       </c>
       <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Hb 77</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1906,6 +2306,11 @@
         <v>18.32</v>
       </c>
       <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Hb 78</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1926,6 +2331,11 @@
       <c r="F82" t="n">
         <v>12.2</v>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Hb 79</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1944,6 +2354,11 @@
         <v>17.21</v>
       </c>
       <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Hb 23</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1960,6 +2375,11 @@
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Hb 24</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1978,6 +2398,11 @@
       <c r="F85" t="n">
         <v>15.13</v>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Hb 25</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1996,6 +2421,11 @@
         <v>15.58</v>
       </c>
       <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Hb 26</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2014,6 +2444,11 @@
         <v>15.25</v>
       </c>
       <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Hb 27</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2032,6 +2467,11 @@
       <c r="F88" t="n">
         <v>15.49</v>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>KHb 30</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2050,6 +2490,11 @@
       <c r="F89" t="n">
         <v>14.81</v>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>KHb 31</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2066,6 +2511,11 @@
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>27 SH1Ph</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2082,6 +2532,11 @@
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>28 SH2R</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2098,6 +2553,11 @@
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>29 SH3V</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2115,6 +2575,11 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
         <v>14.36</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>KS 76</t>
+        </is>
       </c>
     </row>
   </sheetData>
